--- a/medicine/Psychotrope/Strathclyde_(distillerie)/Strathclyde_(distillerie).xlsx
+++ b/medicine/Psychotrope/Strathclyde_(distillerie)/Strathclyde_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Strathclyde est une distillerie de whisky située à Glasgow, en Écosse.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie Strathclyde fut créée en 1927 à Glasgow par Scottish Grain Distillery Co. et produit du whisky de grain. Sur le terrain de Strathclyde fut également fondée, en 1957, la distillerie Kinclaith, destinée à la production de whisky de malt. Mais cette dernière fut fermée en 1975 après la reprise par Whitebread &amp; Co pour permettre l'extension de Strathclyde. Aujourd'hui la distillerie fait partie du groupe Pernod Ricard.
 </t>
@@ -543,7 +557,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'eau nécessaire à la production de Strathclyde provient du Loch Katrine. La distillation s'effectue dans sept coffey stills.
 </t>
@@ -574,7 +590,9 @@
           <t>Embouteillage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le whisky de grain de Strathclyde est destiné à l'élaboration de blends. Il n'existe pas d'embouteillage officiel.
 </t>
